--- a/files/QT/Training_Exercises_II_results.xlsx
+++ b/files/QT/Training_Exercises_II_results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Exercice 1</t>
   </si>
@@ -123,9 +123,6 @@
     <t>modal class</t>
   </si>
   <si>
-    <t>40 - 50</t>
-  </si>
-  <si>
     <t>median class</t>
   </si>
   <si>
@@ -226,6 +223,21 @@
   </si>
   <si>
     <t>Interest rate so that he doubles his investment</t>
+  </si>
+  <si>
+    <t>50 - 60</t>
+  </si>
+  <si>
+    <t>D1 class</t>
+  </si>
+  <si>
+    <t>D9 class</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>70-80</t>
   </si>
 </sst>
 </file>
@@ -500,11 +512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2077405336"/>
-        <c:axId val="2077359336"/>
+        <c:axId val="2087092472"/>
+        <c:axId val="2087248984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2077405336"/>
+        <c:axId val="2087092472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,12 +545,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077359336"/>
+        <c:crossAx val="2087248984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2077359336"/>
+        <c:axId val="2087248984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077405336"/>
+        <c:crossAx val="2087092472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -629,7 +641,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$88</c:f>
+              <c:f>Sheet1!$D$88:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -650,7 +662,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$85:$F$88</c:f>
+              <c:f>Sheet1!$F$88:$F$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -686,7 +698,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$88</c:f>
+              <c:f>Sheet1!$D$88:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -707,7 +719,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$85:$D$88</c:f>
+              <c:f>Sheet1!$D$88:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -736,11 +748,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039177576"/>
-        <c:axId val="2039430984"/>
+        <c:axId val="2087185016"/>
+        <c:axId val="2086702024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039177576"/>
+        <c:axId val="2087185016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -751,12 +763,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2039430984"/>
+        <c:crossAx val="2086702024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039430984"/>
+        <c:axId val="2086702024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -767,7 +779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2039177576"/>
+        <c:crossAx val="2087185016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -820,13 +832,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1171,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1474,7 +1486,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <f t="shared" ref="C29:F29" si="0">D24/D$25</f>
+        <f t="shared" ref="D29:F29" si="0">D24/D$25</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="E29" s="1"/>
@@ -1546,7 +1558,7 @@
         <v>0.69230769230769229</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="C35:F35" si="2">D25*E25/($B$25*$C$25+$D$25*$E$25+$F$25*$G$25)</f>
+        <f t="shared" ref="D35:F35" si="2">D25*E25/($B$25*$C$25+$D$25*$E$25+$F$25*$G$25)</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="F35">
@@ -1727,16 +1739,16 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s">
         <v>36</v>
       </c>
-      <c r="D63" t="s">
-        <v>37</v>
-      </c>
       <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
         <v>41</v>
-      </c>
-      <c r="F63" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1972,364 +1984,379 @@
         <v>33</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78">
+        <v>70</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
         <f>A68+(F74-F67)/(F68-F67)*10</f>
         <v>55.691699604743086</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="B79" t="s">
+    <row r="82" spans="1:6">
+      <c r="B82" t="s">
         <v>18</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
         <v>36</v>
       </c>
-      <c r="D79" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
         <v>41</v>
       </c>
-      <c r="F79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
         <v>10</v>
       </c>
-      <c r="B80" s="3" t="str">
-        <f>CONCATENATE(A80," - ",A81)</f>
+      <c r="B83" s="3" t="str">
+        <f>CONCATENATE(A83," - ",A84)</f>
         <v>10 - 40</v>
       </c>
-      <c r="C80">
+      <c r="C83">
         <f>SUM(C64:C66)</f>
         <v>30</v>
       </c>
-      <c r="D80">
-        <f>C80</f>
+      <c r="D83">
+        <f>C83</f>
         <v>30</v>
       </c>
-      <c r="E80">
-        <f>(A80+A81)/2*C80</f>
+      <c r="E83">
+        <f>(A83+A84)/2*C83</f>
         <v>750</v>
       </c>
-      <c r="F80">
-        <f>E80</f>
+      <c r="F83">
+        <f>E83</f>
         <v>750</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
+    <row r="84" spans="1:6">
+      <c r="A84">
         <v>40</v>
       </c>
-      <c r="B81" s="3" t="str">
-        <f t="shared" ref="B81:B82" si="8">CONCATENATE(A81," - ",A82)</f>
+      <c r="B84" s="3" t="str">
+        <f t="shared" ref="B84:B85" si="8">CONCATENATE(A84," - ",A85)</f>
         <v>40 - 70</v>
       </c>
-      <c r="C81">
+      <c r="C84">
         <f>SUM(C67:C69)</f>
         <v>53</v>
       </c>
-      <c r="D81">
-        <f>C81+D80</f>
+      <c r="D84">
+        <f>C84+D83</f>
         <v>83</v>
       </c>
-      <c r="E81">
-        <f t="shared" ref="E81:E82" si="9">(A81+A82)/2*C81</f>
+      <c r="E84">
+        <f t="shared" ref="E84:E85" si="9">(A84+A85)/2*C84</f>
         <v>2915</v>
       </c>
-      <c r="F81">
-        <f>E81+F80</f>
+      <c r="F84">
+        <f>E84+F83</f>
         <v>3665</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
+    <row r="85" spans="1:6">
+      <c r="A85">
         <v>70</v>
       </c>
-      <c r="B82" s="3" t="str">
+      <c r="B85" s="3" t="str">
         <f t="shared" si="8"/>
         <v>70 - 100</v>
       </c>
-      <c r="C82">
+      <c r="C85">
         <f>SUM(C70:C72)</f>
         <v>15</v>
       </c>
-      <c r="D82">
-        <f>C82+D81</f>
+      <c r="D85">
+        <f>C85+D84</f>
         <v>98</v>
       </c>
-      <c r="E82">
+      <c r="E85">
         <f t="shared" si="9"/>
         <v>1275</v>
       </c>
-      <c r="F82">
-        <f>E82+F81</f>
+      <c r="F85">
+        <f>E85+F84</f>
         <v>4940</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
+    <row r="86" spans="1:6">
+      <c r="A86">
         <v>100</v>
       </c>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="B84" t="s">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" t="s">
         <v>18</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
         <v>36</v>
       </c>
-      <c r="D84" t="s">
-        <v>37</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s">
         <v>41</v>
       </c>
-      <c r="F84" t="s">
+    </row>
+    <row r="88" spans="1:6">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="B86" s="3" t="s">
+      <c r="D89" s="4">
+        <f>D83/D$85</f>
+        <v>0.30612244897959184</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4">
+        <f>F83/F$85</f>
+        <v>0.15182186234817813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="B90" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="4">
-        <f>D80/D$82</f>
-        <v>0.30612244897959184</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4">
-        <f>F80/F$82</f>
-        <v>0.15182186234817813</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="B87" s="3" t="s">
+      <c r="D90" s="4">
+        <f>D84/D$85</f>
+        <v>0.84693877551020413</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4">
+        <f>F84/F$85</f>
+        <v>0.7419028340080972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="4">
-        <f>D81/D$82</f>
-        <v>0.84693877551020413</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4">
-        <f>F81/F$82</f>
-        <v>0.7419028340080972</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="B88" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="4">
-        <f>D82/D$82</f>
+      <c r="D91" s="4">
+        <f>D85/D$85</f>
         <v>1</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4">
-        <f>F82/F$82</f>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4">
+        <f>F85/F$85</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="1">
-        <f>D86*F86/2</f>
-        <v>2.3238040155333387E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" s="1">
-        <f>(F86+F87)*(D87-D86)/2</f>
-        <v>0.24167045360654385</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" s="1">
+        <f>D89*F89/2</f>
+        <v>2.3238040155333387E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="1">
+        <f>(F89+F90)*(D90-D89)/2</f>
+        <v>0.24167045360654385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="1">
+        <f>(F91+F90)*(D91-D90)/2</f>
+        <v>0.1333088903577625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="1">
-        <f>(F88+F87)*(D88-D87)/2</f>
-        <v>0.1333088903577625</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="5" t="s">
+      <c r="B113" s="1">
+        <f>B112+B111+B110</f>
+        <v>0.39821738411963969</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="6">
+        <f>1-2*B113</f>
+        <v>0.20356523176072061</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B110" s="1">
-        <f>B109+B108+B107</f>
-        <v>0.39821738411963969</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" s="6">
-        <f>1-2*B110</f>
-        <v>0.20356523176072061</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2" t="s">
+    </row>
+    <row r="118" spans="1:2">
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="B115" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>59</v>
-      </c>
-      <c r="B116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117">
+      <c r="B120">
         <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="9" t="s">
+      <c r="B129" s="8">
+        <f>(B120/B119)^(1/90)-1</f>
+        <v>9.2975015290994723E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B126" s="8">
-        <f>(B117/B116)^(1/90)-1</f>
-        <v>9.2975015290994723E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="10" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B132">
+        <f>B119*(1+B129)^30</f>
+        <v>132.0006121795914</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>65</v>
       </c>
-      <c r="B129">
-        <f>B116*(1+B126)^30</f>
-        <v>132.0006121795914</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="B132" s="11">
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="11">
         <v>100000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>67</v>
-      </c>
-      <c r="B133" s="11">
-        <f>B132*(1+5*3/100)</f>
-        <v>114999.99999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>63</v>
-      </c>
-      <c r="B136" s="4">
-        <f>(2*B132/B132-1)/10</f>
+        <v>66</v>
+      </c>
+      <c r="B136" s="11">
+        <f>B135*(1+5*3/100)</f>
+        <v>114999.99999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="4">
+        <f>(2*B135/B135-1)/10</f>
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="E64 E65:E72" formula="1"/>
   </ignoredErrors>
